--- a/HarveyBehaviorPCB_v2_BOM.xlsx
+++ b/HarveyBehaviorPCB_v2_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ofer/HMS Dropbox/RIC/Projects/Harvey - Behavior PCB v2/Harvey_Behavior_PCB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD5856F-9B93-734E-9BB8-9F9A5F5D90A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C504D73-7F79-754F-B7C3-37642A8F5823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4180" yWindow="900" windowWidth="28780" windowHeight="21060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,9 +296,6 @@
     <t>Or any other 1x02 connector with 0.1" spacing</t>
   </si>
   <si>
-    <t>WM26508-ND</t>
-  </si>
-  <si>
     <t>WM25326-ND</t>
   </si>
   <si>
@@ -327,6 +324,9 @@
   </si>
   <si>
     <t>C1,C2</t>
+  </si>
+  <si>
+    <t>900-0534760710-ND</t>
   </si>
 </sst>
 </file>
@@ -336,13 +336,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -417,57 +423,58 @@
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -832,7 +839,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -879,7 +886,7 @@
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -1012,7 +1019,7 @@
         <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" s="4">
         <v>0.1</v>
@@ -1137,7 +1144,7 @@
         <f t="shared" si="0"/>
         <v>1.52</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="17" t="s">
         <v>83</v>
       </c>
       <c r="I11" s="15" t="s">
@@ -1159,14 +1166,14 @@
         <v>75</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F12" s="13">
-        <v>0.88</v>
+        <v>0.73</v>
       </c>
       <c r="G12" s="13">
         <f t="shared" ref="G12:G27" si="1">F12*C12</f>
-        <v>1.76</v>
+        <v>1.46</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>84</v>
@@ -1365,7 +1372,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="4"/>
@@ -1390,7 +1397,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="4"/>
@@ -1415,7 +1422,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="4"/>
@@ -1440,7 +1447,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="4"/>
@@ -1463,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="4"/>
@@ -1490,7 +1497,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="4"/>
@@ -1515,7 +1522,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="4"/>
@@ -1607,7 +1614,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D30" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1615,10 +1622,10 @@
         <v>2</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F31" s="4">
         <v>6.32</v>
@@ -1628,7 +1635,7 @@
         <v>12.64</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1636,10 +1643,10 @@
         <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F32" s="4">
         <v>0.56000000000000005</v>
@@ -1649,17 +1656,12 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="65" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/HarveyBehaviorPCB_v2_BOM.xlsx
+++ b/HarveyBehaviorPCB_v2_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ofer/HMS Dropbox/RIC/Projects/Harvey - Behavior PCB v2/Harvey_Behavior_PCB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shin/Documents/GitHub/HarveyBehaviorPCB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C504D73-7F79-754F-B7C3-37642A8F5823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6168E40D-06A5-CB44-820E-F2E60A890407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="900" windowWidth="28780" windowHeight="21060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13100" yWindow="3600" windowWidth="28780" windowHeight="21060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HarveyBehaviorPCB_BOM.csv" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="107">
   <si>
     <t>Part</t>
   </si>
@@ -327,6 +327,33 @@
   </si>
   <si>
     <t>900-0534760710-ND</t>
+  </si>
+  <si>
+    <t>BC5211-ND</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 50V X7R RADIAL</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor</t>
+  </si>
+  <si>
+    <t>399-17282-ND</t>
+  </si>
+  <si>
+    <t>490-11886-ND</t>
+  </si>
+  <si>
+    <t>490-9273-1-ND</t>
+  </si>
+  <si>
+    <t>CAP CER 10000PF 1KV X7R RADIAL</t>
+  </si>
+  <si>
+    <t>CAP CER 0.22UF 25V X8R RADIAL</t>
+  </si>
+  <si>
+    <t>Adjust the capacitance to achieve the desired time constant of the RC filter.</t>
   </si>
 </sst>
 </file>
@@ -442,7 +469,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -475,6 +502,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -837,9 +868,9 @@
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -894,18 +925,24 @@
       <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="4"/>
+      <c r="D2" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.51</v>
+      </c>
       <c r="G2" s="4">
         <f>F2*C2</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+        <v>1.02</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>99</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -917,18 +954,27 @@
       <c r="C3" s="2">
         <v>3</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1.84</v>
+      </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G11" si="0">F3*C3</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+        <f>F3*C3</f>
+        <v>5.5200000000000005</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>106</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -940,18 +986,24 @@
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="G4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+        <f t="shared" ref="G4:G11" si="0">F4*C4</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>99</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -963,18 +1015,24 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2.13</v>
+      </c>
       <c r="G5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+        <v>2.13</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>104</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -989,7 +1047,7 @@
       <c r="D6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="18" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="4">

--- a/HarveyBehaviorPCB_v2_BOM.xlsx
+++ b/HarveyBehaviorPCB_v2_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shin/Documents/GitHub/HarveyBehaviorPCB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6168E40D-06A5-CB44-820E-F2E60A890407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24800DE-9B3A-D64E-8767-8F4078BBC1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13100" yWindow="3600" windowWidth="28780" windowHeight="21060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8940" yWindow="3600" windowWidth="28780" windowHeight="21060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HarveyBehaviorPCB_BOM.csv" sheetId="1" r:id="rId1"/>
@@ -870,7 +870,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1679,10 +1679,10 @@
       <c r="C31" s="2">
         <v>2</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="18" t="s">
         <v>87</v>
       </c>
       <c r="F31" s="4">
@@ -1700,10 +1700,10 @@
       <c r="C32" s="2">
         <v>2</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="18" t="s">
         <v>90</v>
       </c>
       <c r="F32" s="4">
